--- a/artfynd/A 34337-2025 artfynd.xlsx
+++ b/artfynd/A 34337-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY12"/>
+  <dimension ref="A1:AY16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1879,6 +1879,464 @@
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>131139047</v>
+      </c>
+      <c r="B13" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Korshamnsgrundet, Korshamnsgrundet, Sm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>592528</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6320591</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Mönsterås</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Mönsterås</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Lars Engström</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Lars Engström</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>131146326</v>
+      </c>
+      <c r="B14" t="n">
+        <v>57830</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>100067</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Havsörn</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Haliaeetus albicilla</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2K+</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Korshamn, Björnö, Mönsterås, Sm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>592599</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6320593</v>
+      </c>
+      <c r="S14" t="n">
+        <v>25</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Mönsterås</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Mönsterås</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Kom över oss och flög ut mot Gryssholm</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Jan Brenander</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Jan Brenander</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>131146287</v>
+      </c>
+      <c r="B15" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Korshamn, Björnö, Mönsterås, Sm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>592599</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6320593</v>
+      </c>
+      <c r="S15" t="n">
+        <v>25</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Mönsterås</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Mönsterås</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Jan Brenander</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Jan Brenander</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>131146362</v>
+      </c>
+      <c r="B16" t="n">
+        <v>91829</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5442</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tallticka</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Porodaedalea pini</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Korshamn, Björnö, Mönsterås, Sm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>592629</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6320625</v>
+      </c>
+      <c r="S16" t="n">
+        <v>25</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Mönsterås</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Mönsterås</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Jan Brenander</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Jan Brenander</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 34337-2025 artfynd.xlsx
+++ b/artfynd/A 34337-2025 artfynd.xlsx
@@ -2237,7 +2237,7 @@
         <v>131146362</v>
       </c>
       <c r="B16" t="n">
-        <v>91829</v>
+        <v>91830</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
